--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.24</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.988</v>
+        <v>19.143</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.145</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.633</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.988</v>
+        <v>15.79</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>31.55129081829711</v>
+        <v>-11.0088321301971</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>31.55760026655316</v>
+        <v>14.44446278174121</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.54108873585657</v>
+        <v>24.08990140630749</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.0468719672167</v>
+        <v>28.36350101939889</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>31.54624770730127</v>
+        <v>-8.670229574333003</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.55522360748013</v>
+        <v>16.78802951040393</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>31.55248951141925</v>
+        <v>0.3018026974656358</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.55792513973654</v>
+        <v>25.75675660149489</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.36005237174955</v>
+        <v>35.40510222861485</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.84565782249713</v>
+        <v>39.67844455026852</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.55300662183409</v>
+        <v>2.643840819011988</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.55798332878377</v>
+        <v>28.10375905878584</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.55041760742465</v>
+        <v>3.530997973115522</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.55686502886401</v>
+        <v>28.98662560689991</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.34869321131717</v>
+        <v>38.63547336427769</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.0110805957131</v>
+        <v>42.90891586586179</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.54435945729798</v>
+        <v>5.873588899375253</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.55384340743408</v>
+        <v>31.33418086952998</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>31.5502267551549</v>
+        <v>-4.397033405545354</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.55688296633609</v>
+        <v>21.05744041288506</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.16143119785938</v>
+        <v>30.70346125820902</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>27.7945606875566</v>
+        <v>34.97734123901978</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31.54541428098453</v>
+        <v>-2.057698699622161</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.55437348268038</v>
+        <v>23.40173931356856</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>30.18221144889638</v>
+        <v>26.42528477107021</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.89933672855149</v>
+        <v>30.70415948257278</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>31.5481093030762</v>
+        <v>1.559907491362427</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.55601489906983</v>
+        <v>27.02365325185236</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.90100736948177</v>
+        <v>36.66908286704995</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>30.68052583787329</v>
+        <v>40.94748558829906</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.71800779022968</v>
+        <v>37.74392150726192</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.13337380401827</v>
+        <v>42.02253898317781</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.56354002714526</v>
+        <v>12.8760798291944</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.56329902977061</v>
+        <v>38.34148471684875</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.88707289798254</v>
+        <v>47.98982179385894</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>40.19999466853994</v>
+        <v>52.26796723012876</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.64635186302191</v>
+        <v>40.97484533414297</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>33.1588408737393</v>
+        <v>45.25356305003174</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31.55565127316147</v>
+        <v>16.10779187109143</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.55945212201599</v>
+        <v>41.57387047449834</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.25294730152207</v>
+        <v>51.22270970160685</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>37.84318740144514</v>
+        <v>55.50095536536992</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.80973572793776</v>
+        <v>33.03957649134429</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.20010307042201</v>
+        <v>37.3187316992562</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31.55176513485346</v>
+        <v>8.176091223947427</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.55738317045187</v>
+        <v>33.64101591726956</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36.57385374166108</v>
+        <v>43.28702770617883</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.34511494347153</v>
+        <v>47.56571091087017</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>31.54809009550516</v>
+        <v>-3.536841402533238</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.55548443534308</v>
+        <v>21.91833100001316</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.47831013778131</v>
+        <v>31.56443451209623</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>30.4795234417135</v>
+        <v>35.83705374296744</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.54554104136246</v>
+        <v>-1.210644587146927</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>31.5546385899726</v>
+        <v>24.24949139044282</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.54970480662228</v>
+        <v>7.773053151389494</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31.55585191148794</v>
+        <v>33.22988450210141</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32.98101307576173</v>
+        <v>42.87889494100534</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>33.66039920540434</v>
+        <v>47.15125685272471</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.54636501419769</v>
+        <v>10.10268530098643</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.55433327658544</v>
+        <v>35.56448038992357</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>31.54762051142276</v>
+        <v>11.00180289859702</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.5549296694963</v>
+        <v>36.45930793722323</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.5444341622916</v>
+        <v>46.10882049824522</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.58846849761335</v>
+        <v>50.3812825788184</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.5449470926257</v>
+        <v>13.33198788785115</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.55395330060882</v>
+        <v>38.79445666507615</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.54884569483873</v>
+        <v>3.07421718689989</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.55572174984352</v>
+        <v>28.53056843365835</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32.61799183548101</v>
+        <v>38.17725416106532</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.32439852211079</v>
+        <v>42.45015373882734</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>31.54501044226143</v>
+        <v>5.401146164800142</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.55407478078882</v>
+        <v>30.86246100873598</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.54865469392886</v>
+        <v>33.88741240387071</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.23287961084921</v>
+        <v>38.16530614674946</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.54492604469697</v>
+        <v>9.019613435437581</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.55439102696016</v>
+        <v>34.48523574672788</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>31.7763871456909</v>
+        <v>44.13133054706452</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.54289190177977</v>
+        <v>48.40875240205924</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.66580681554942</v>
+        <v>45.20530851563649</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.3813544938973</v>
+        <v>49.48294499520023</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>31.54709306767799</v>
+        <v>20.33504512303876</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.55425736245572</v>
+        <v>45.80232651780739</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.88226515436493</v>
+        <v>55.4513287041691</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.65149122157506</v>
+        <v>59.72849324649428</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>33.60180362788577</v>
+        <v>48.43578679907387</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.49816663893918</v>
+        <v>52.71352350722134</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>31.54569459984311</v>
+        <v>23.56631156851507</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.5540117464036</v>
+        <v>49.03426663713014</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.39265830946485</v>
+        <v>58.68377096529275</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.04385740379964</v>
+        <v>62.96103572389484</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>30.98867827264882</v>
+        <v>40.50096393413378</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>32.17557201512204</v>
+        <v>44.77913815241493</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.54420308440039</v>
+        <v>15.63505689289491</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.55352116934151</v>
+        <v>41.10185807508549</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.99231959091018</v>
+        <v>50.74853504397538</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.76654357087835</v>
+        <v>55.02623736132728</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.5580854932362</v>
+        <v>-3.828987617143067</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.56122314628006</v>
+        <v>21.62612394588973</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.36190211188445</v>
+        <v>31.27271971189157</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.59446268058962</v>
+        <v>35.54513420253249</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.55339743371737</v>
+        <v>-1.496636108257686</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>31.55880206350508</v>
+        <v>23.96343918053845</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>31.56393645488218</v>
+        <v>7.481013325460371</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.56428020566882</v>
+        <v>32.93778384757491</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.22736140008344</v>
+        <v>42.58728654811284</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.17069918059579</v>
+        <v>46.85944371843937</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.56280491246516</v>
+        <v>9.816800176400651</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.56331711794793</v>
+        <v>35.27853458753384</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>31.54770445202087</v>
+        <v>10.70983833303717</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.55510873129559</v>
+        <v>36.16728255268742</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.76271207805952</v>
+        <v>45.81728737669982</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>34.28146959474778</v>
+        <v>50.08954471304116</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>31.55640400915037</v>
+        <v>13.0461780096008</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.55975444838225</v>
+        <v>38.50858611874617</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.54829993837504</v>
+        <v>2.782204773309108</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>31.55537016753494</v>
+        <v>28.23849519743203</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>33.99139909184115</v>
+        <v>37.88567318487469</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>34.65243628130269</v>
+        <v>42.15836801594787</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>31.5513844375837</v>
+        <v>5.115288451550331</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.55736611188828</v>
+        <v>30.57654262381164</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.93605439435292</v>
+        <v>33.60185294572375</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>32.42344858959229</v>
+        <v>37.87954188381684</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.55127861647222</v>
+        <v>8.732220131589319</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.5576053973312</v>
+        <v>34.19778180315541</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.49989806997743</v>
+        <v>43.84436910035936</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.23033407303696</v>
+        <v>48.12158617741227</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>38.59809285279047</v>
+        <v>44.91985547238346</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.71474718016142</v>
+        <v>49.19728714618498</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>31.56712088943274</v>
+        <v>20.04775823112152</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>31.56536130027059</v>
+        <v>45.51497899693629</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>40.47381658891732</v>
+        <v>55.16447368794013</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>40.5614742059558</v>
+        <v>59.44143345131727</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.64243307512143</v>
+        <v>48.15040901357077</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.13148397546101</v>
+        <v>52.42794091305177</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>31.55726308497423</v>
+        <v>23.27909991964271</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>31.55994369021739</v>
+        <v>48.74699436903359</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>38.45710486296559</v>
+        <v>58.39699120326748</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.00960125775489</v>
+        <v>62.67405118016211</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>32.76509631977007</v>
+        <v>40.21553830661855</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.55998321983739</v>
+        <v>44.49350771378818</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>31.55292120164177</v>
+        <v>15.3477973808981</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>31.55730343948105</v>
+        <v>40.81453794039703</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.93872883799279</v>
+        <v>50.46170741198375</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37.81402156221856</v>
+        <v>54.73920494513413</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.57886230884154</v>
+        <v>-13.80035838899209</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>31.5726154906945</v>
+        <v>11.65200408427836</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.6091885436356</v>
+        <v>21.29777290742448</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>32.33793179134754</v>
+        <v>25.57103958371852</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>31.5469930745154</v>
+        <v>-11.46284971860643</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>31.55547457549002</v>
+        <v>13.99447679332252</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31.58205614269643</v>
+        <v>-2.490039950014303</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>31.5740960795151</v>
+        <v>22.96398147893206</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>35.91092128352975</v>
+        <v>32.61265726085276</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35.60514303858399</v>
+        <v>36.8856666459094</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>31.55091777429018</v>
+        <v>-0.1490958120099286</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.55683101049524</v>
+        <v>25.30988981891892</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.58104046971139</v>
+        <v>0.7391224797701206</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.57364670311201</v>
+        <v>26.19381762696935</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.69859654335344</v>
+        <v>35.84299553397773</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.54542906062095</v>
+        <v>40.11610509628747</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.54533543239814</v>
+        <v>3.080619406374812</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.55449388302603</v>
+        <v>28.54027875578698</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.58228202889392</v>
+        <v>-7.188611414481212</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.57431237134019</v>
+        <v>18.26492994423655</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>34.12123243253195</v>
+        <v>27.91128098638149</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.91863130078394</v>
+        <v>32.18482802332767</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.54803305013314</v>
+        <v>-4.850370621428052</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.55552544526524</v>
+        <v>20.60813479833019</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.31018317057342</v>
+        <v>23.63206233451934</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.98436775803203</v>
+        <v>27.91060400976744</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.55100168388235</v>
+        <v>-1.232389325596838</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.55751349925493</v>
+        <v>24.23042376549586</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.1450889603338</v>
+        <v>33.87618357537167</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.77644073250056</v>
+        <v>38.15425326689672</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35.922596185263</v>
+        <v>34.95038250376456</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.36760615562935</v>
+        <v>39.22866694384402</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.5641881997893</v>
+        <v>10.08346648077452</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.56356634234132</v>
+        <v>35.54793866261821</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>40.28365519548991</v>
+        <v>45.19660589071816</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>40.63114995485321</v>
+        <v>49.47441829732145</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.98206508398887</v>
+        <v>38.18127345246307</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>33.28054192664859</v>
+        <v>42.4596581295549</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.55827782709516</v>
+        <v>13.31514562790597</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.56126576918371</v>
+        <v>38.78029151419298</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>37.1661024232648</v>
+        <v>48.42946088743815</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>38.11065298388947</v>
+        <v>52.70737351915216</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>27.89089236239625</v>
+        <v>30.24630225458589</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.49785869050262</v>
+        <v>34.52512441929002</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.55879857483038</v>
+        <v>5.383742581408914</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.56140930938371</v>
+        <v>30.84773458457778</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.29327534250447</v>
+        <v>40.49407656682047</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.15557039324066</v>
+        <v>44.77242673446028</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.55761843611446</v>
+        <v>-2.855044060970382</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.56098253309245</v>
+        <v>22.59947301332443</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.40068136998746</v>
+        <v>32.24586170571501</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.71125507250069</v>
+        <v>36.5190978546093</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.5544249843187</v>
+        <v>-0.5180915028854507</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.55948068918057</v>
+        <v>24.94138956240909</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>31.55416395220563</v>
+        <v>8.455514398279437</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.55895691702776</v>
+        <v>33.91169045825325</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.9143422006042</v>
+        <v>43.5609861446992</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.25249643302339</v>
+        <v>47.83396499215587</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>31.57079637773535</v>
+        <v>10.79590239459913</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>31.56734148201169</v>
+        <v>36.25704260846953</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>31.54731007148645</v>
+        <v>11.68475280890562</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.55498723184017</v>
+        <v>37.14160259137134</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.54024370621657</v>
+        <v>46.79140041237702</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.16655309224512</v>
+        <v>51.06447943126193</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.5662934819998</v>
+        <v>14.02569358405811</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>31.56496444709065</v>
+        <v>39.48750752077149</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>31.54937636876106</v>
+        <v>3.756860930619386</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.55578334922071</v>
+        <v>29.21255690444685</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.8712804197431</v>
+        <v>38.85952782562231</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.64272452169416</v>
+        <v>43.13304432707378</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.56473146581318</v>
+        <v>6.094545587691645</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.56425524195384</v>
+        <v>31.55520557449688</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.80788673383078</v>
+        <v>34.5795952948481</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.02740660976692</v>
+        <v>38.85810632310631</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.55219035721425</v>
+        <v>9.709886063983394</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.55829695274883</v>
+        <v>35.17485364825041</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.53325395273311</v>
+        <v>44.82123349435017</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.01923837680617</v>
+        <v>49.0992725596434</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>40.66399974895663</v>
+        <v>45.89815552032735</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>40.72633322035809</v>
+        <v>50.17640930305276</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.57735567849694</v>
+        <v>21.02598182420411</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>31.57086302820814</v>
+        <v>46.49260852943826</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.60921331930377</v>
+        <v>56.14189582875497</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>42.4996789112604</v>
+        <v>60.41967759897079</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>39.40241118868337</v>
+        <v>49.1291224533428</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>31.56775055176497</v>
+        <v>24.25773694949453</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.56553777687055</v>
+        <v>49.72503736304361</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>40.01704230789029</v>
+        <v>59.37482681687948</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>40.25533643341613</v>
+        <v>63.65270880626031</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.47290429307892</v>
+        <v>41.19399323203436</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.73055835614048</v>
+        <v>45.47278474163704</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.56732826022999</v>
+        <v>16.32617597048693</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.56527071764306</v>
+        <v>41.79232248086498</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>40.53499427867037</v>
+        <v>51.43928450877286</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>40.67449078687925</v>
+        <v>55.71760404242502</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.55425644396815</v>
+        <v>1.37908484860839</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.55912797815984</v>
+        <v>26.83348441480041</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.20477730510418</v>
+        <v>36.4791196325582</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.6265291603616</v>
+        <v>40.75098929694798</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.55229462196342</v>
+        <v>3.714554164473729</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.55816219712361</v>
+        <v>29.17391709582035</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>31.55648556013918</v>
+        <v>12.68809763119237</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.55993475427547</v>
+        <v>38.14415600378857</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.09537868827904</v>
+        <v>47.79269788618001</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>34.47174029016011</v>
+        <v>52.06431025056486</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.56091625832492</v>
+        <v>15.0270019732327</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.56216355121431</v>
+        <v>40.48802387391618</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.54459929792858</v>
+        <v>15.91675654425785</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>31.55355682125404</v>
+        <v>41.37348855133439</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.23508333831135</v>
+        <v>51.02253252114849</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.92222031109619</v>
+        <v>55.29424503340522</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>31.55123798283118</v>
+        <v>18.25621360265996</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>31.55711141342646</v>
+        <v>43.71790913834445</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>31.54580085826359</v>
+        <v>7.989908686207176</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>31.55377011489701</v>
+        <v>33.44548701068493</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.75497789923675</v>
+        <v>43.09170440919002</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.5773997462606</v>
+        <v>47.36385437244689</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>31.54973137117963</v>
+        <v>10.32611000004193</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>31.55672845467059</v>
+        <v>35.78665171169428</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32.70938868361038</v>
+        <v>38.81137072816875</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.20727210311474</v>
+        <v>43.08851443941228</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.54996217488568</v>
+        <v>13.93950113395136</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.55710664044683</v>
+        <v>39.40434975429309</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>32.97010547541555</v>
+        <v>49.04997629777904</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>33.48937273557092</v>
+        <v>53.32664811709606</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>38.5342568996513</v>
+        <v>50.12838435637332</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>38.82906677043475</v>
+        <v>54.40527082365895</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.56154736872228</v>
+        <v>25.25405049328777</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>39.02373113720113</v>
+        <v>60.36909172282731</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>39.28152003302532</v>
+        <v>64.64550624845947</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.70077863569158</v>
+        <v>53.35877159428219</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.52085907025893</v>
+        <v>57.63575826941656</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.55248031698376</v>
+        <v>28.48522583824741</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.55725217445104</v>
+        <v>53.95240702073545</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.65106718045494</v>
+        <v>63.60144279527447</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>38.30757575742068</v>
+        <v>67.87795751675105</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.23958141013337</v>
+        <v>45.42468722117769</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.1753294175009</v>
+        <v>49.70211136002206</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.54987499183148</v>
+        <v>20.55470939511349</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>31.55596462677394</v>
+        <v>46.0207368001611</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.65545567270787</v>
+        <v>55.66694547749944</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>37.40945286422404</v>
+        <v>59.94389771145097</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.55230986992801</v>
+        <v>-13.50812473739586</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.55814316346941</v>
+        <v>11.94252613406673</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.93244422938386</v>
+        <v>21.58733507073658</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.34671842528926</v>
+        <v>25.85984570154654</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>31.55100099328218</v>
+        <v>-11.16479383131025</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>31.55749501162997</v>
+        <v>14.29082077279918</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.55275705209208</v>
+        <v>-2.199060655622699</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>31.55816662110583</v>
+        <v>23.25324902146645</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.07165747229018</v>
+        <v>32.90096461988958</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.53849838740523</v>
+        <v>37.1732179800033</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.55217042702709</v>
+        <v>0.1477055242378391</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.55758834998439</v>
+        <v>25.60497909708386</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.54726082838331</v>
+        <v>1.029474318637998</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>31.55510960324625</v>
+        <v>26.48245764481669</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.30822952085722</v>
+        <v>36.13067529827799</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.13526872792324</v>
+        <v>40.40302882899243</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.54667390240998</v>
+        <v>3.376793274049309</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>31.55491950701613</v>
+        <v>28.83474049631366</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>31.54697032184557</v>
+        <v>-6.897562452281587</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.55512299662105</v>
+        <v>18.55426718619424</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.66939573315022</v>
+        <v>28.19965825255963</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>27.45401610425174</v>
+        <v>32.47244922077198</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>31.54747789400496</v>
+        <v>-4.553499409268507</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>31.55536908664122</v>
+        <v>20.90329398398876</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.49195897020871</v>
+        <v>23.92744787962113</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.070406557646</v>
+        <v>28.2052329493198</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.54837196553984</v>
+        <v>-0.9361737489050448</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.55623832316789</v>
+        <v>24.52492697144556</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>30.51729558520289</v>
+        <v>34.16972721340903</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>31.09459028891546</v>
+        <v>38.44704036331336</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.06813704810465</v>
+        <v>35.24451305116872</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.5813089409288</v>
+        <v>39.52204090610178</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.56636991132918</v>
+        <v>10.37842735553034</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>31.56506376119692</v>
+        <v>35.84118701710122</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>38.50454135996604</v>
+        <v>45.48889438010576</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.59107432466713</v>
+        <v>49.76595026559482</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>31.51330345201435</v>
+        <v>38.47477639198507</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>32.3365107611644</v>
+        <v>42.7524044774002</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>31.54982096103163</v>
+        <v>13.60947886072006</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>31.55603151232737</v>
+        <v>39.07291215718044</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.91675220824872</v>
+        <v>48.72112159539631</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.46721046426497</v>
+        <v>52.99827769930664</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.97711250869683</v>
+        <v>30.54050291692034</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.87320159573611</v>
+        <v>34.81856845282334</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>31.55030366788053</v>
+        <v>5.678773152783723</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.55645645734119</v>
+        <v>31.14105266683874</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>35.83875557925295</v>
+        <v>40.7864349916448</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.58795199262951</v>
+        <v>45.06402859462025</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>31.54936321502513</v>
+        <v>-17.69970122944096</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.55650151980453</v>
+        <v>7.753769287704817</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.49583784599395</v>
+        <v>17.39961298257299</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.12761076775011</v>
+        <v>21.6727906205548</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.54439109509306</v>
+        <v>-15.3651461571203</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.55449809913431</v>
+        <v>10.09328831894573</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.55419039557618</v>
+        <v>-6.389516230095747</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.55893243171337</v>
+        <v>19.06561326040196</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.76008084094141</v>
+        <v>28.71436392117096</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.15131750698052</v>
+        <v>32.98728425864056</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>31.54360801204232</v>
+        <v>-4.051525764075219</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.55402703119565</v>
+        <v>21.40856784840117</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.55159016681301</v>
+        <v>-3.160396778911146</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>31.55758681142738</v>
+        <v>22.29540643036808</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26.32307729991002</v>
+        <v>31.944659216118</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.85289277727547</v>
+        <v>36.21767972765986</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>31.54541980904235</v>
+        <v>-0.8218535256173674</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.55442422275596</v>
+        <v>24.63891380597227</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>31.54859774386123</v>
+        <v>-11.08804333429623</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>31.5560120720069</v>
+        <v>14.36660607163822</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>24.44636958348929</v>
+        <v>24.01303198081371</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.13194942755363</v>
+        <v>28.28648997563596</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>31.5472381872226</v>
+        <v>-8.752756155030621</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.55543401239737</v>
+        <v>16.7068572320494</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>27.68493300717665</v>
+        <v>19.73094890868379</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.36646808166905</v>
+        <v>24.00940143097603</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>31.54379659175278</v>
+        <v>-5.135482815160454</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.55440096715424</v>
+        <v>20.32843823888266</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.70092462293409</v>
+        <v>29.97427293756744</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.10277731133901</v>
+        <v>34.25225356703493</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.62123795359467</v>
+        <v>31.04913558895783</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.56130485021712</v>
+        <v>35.32733086683118</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>31.54118309010248</v>
+        <v>6.1802394607131</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.55304229488406</v>
+        <v>31.6458196235501</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.46699017250639</v>
+        <v>41.29456174725055</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.49984722739994</v>
+        <v>45.57228508241553</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.7103736905555</v>
+        <v>34.27998355776299</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.06706973663625</v>
+        <v>38.55827906930017</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>31.54246176611436</v>
+        <v>9.411875626577515</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.55316222098118</v>
+        <v>34.87812949388172</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.78225862911536</v>
+        <v>44.52737376256016</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.20247438645735</v>
+        <v>48.80519731965319</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.87342673793874</v>
+        <v>26.34509973217894</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.70701759987353</v>
+        <v>30.623832739921</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>31.54223250259781</v>
+        <v>1.48055999624194</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>31.55304851840352</v>
+        <v>26.94565996572067</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.84630553382786</v>
+        <v>36.59207683186321</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.63106660857452</v>
+        <v>40.87033793376463</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.57159069148019</v>
+        <v>0.5810301450319493</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31.56850631055168</v>
+        <v>26.03667251444051</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>31.9797222216541</v>
+        <v>35.68314751325568</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.84424855438895</v>
+        <v>39.95510527654517</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>31.5514125580481</v>
+        <v>2.906631743922279</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.55783268907145</v>
+        <v>28.36723750526528</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.5760790676803</v>
+        <v>11.89080105896722</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.57059838926706</v>
+        <v>37.34810231517531</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.72178195331484</v>
+        <v>46.99748415403701</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.34663176352332</v>
+        <v>51.26918460229547</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>31.56491973649949</v>
+        <v>14.219837810684</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.56446793223244</v>
+        <v>39.68210262190087</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.54993274663187</v>
+        <v>15.11957924635329</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>31.55604249452856</v>
+        <v>40.57755417101805</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.21408125951142</v>
+        <v>50.22743812101351</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.94300906491753</v>
+        <v>54.49923872238105</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>31.55584929140902</v>
+        <v>17.44916882793553</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>31.55950290852103</v>
+        <v>42.91210730788089</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.54631434298389</v>
+        <v>7.192065902649009</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.55412123194355</v>
+        <v>32.64888708852152</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.98227911012045</v>
+        <v>42.29594430033501</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>34.74186879487267</v>
+        <v>46.56818237544383</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>31.55182071854439</v>
+        <v>9.518399659310493</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>31.5577127343339</v>
+        <v>34.98018425905593</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>30.56059235454814</v>
+        <v>38.0055303290776</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.07418777329883</v>
+        <v>42.28276222474506</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.55069790899488</v>
+        <v>13.13599401671275</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>31.55737603402427</v>
+        <v>38.60208584882344</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.65665758309409</v>
+        <v>48.24855207021301</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>32.26536319291441</v>
+        <v>52.52531213755924</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.29787888276796</v>
+        <v>49.32330247076061</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.36689241413697</v>
+        <v>53.60027710734664</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.56827642629273</v>
+        <v>24.45130177561692</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>31.56597014923203</v>
+        <v>49.91905262978219</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>39.26266299566893</v>
+        <v>59.56842615010805</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>39.37563321803604</v>
+        <v>63.84492890884098</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>34.22686286685739</v>
+        <v>52.55380915423427</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.71372533216327</v>
+        <v>56.83088400376198</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.55499814708794</v>
+        <v>27.68259657348347</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.5587818595565</v>
+        <v>53.15102108225381</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>37.16331103523579</v>
+        <v>62.80089673357236</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>37.64194041109651</v>
+        <v>67.07749969298777</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>30.51323603417023</v>
+        <v>44.61905899203362</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.13686635317676</v>
+        <v>48.89657132837272</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>31.55100665797388</v>
+        <v>19.75141448764953</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.55674557592955</v>
+        <v>45.2186851628735</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.26697016795206</v>
+        <v>54.86573355006885</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.81755563689376</v>
+        <v>59.14277404491145</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>31.5493913164257</v>
+        <v>-19.4418695531607</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.5565101479247</v>
+        <v>6.007435494376299</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.23263463000266</v>
+        <v>15.65126798093809</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.79113126362062</v>
+        <v>19.92436092042158</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>31.54683638645128</v>
+        <v>-17.10335275621832</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>31.55533816414387</v>
+        <v>8.350915891570597</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.5513008107848</v>
+        <v>-8.1327622010981</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.55746868216696</v>
+        <v>17.31820164441979</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.74996385060116</v>
+        <v>26.96494077284968</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.32601597023002</v>
+        <v>31.23777645271423</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.54715323982592</v>
+        <v>-5.79081011858818</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.5551789850933</v>
+        <v>19.66511749023005</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.55062972543256</v>
+        <v>-4.904341531711562</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.55709795795823</v>
+        <v>20.54729595147854</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.19204991108554</v>
+        <v>30.19453713172709</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.84485835931261</v>
+        <v>34.46747299574042</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.5449205973364</v>
+        <v>-2.561836705000584</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>31.55419424212897</v>
+        <v>22.89476454180067</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.54869297323567</v>
+        <v>-12.83154225322732</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.55612203586923</v>
+        <v>12.61894153457604</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.49515933166208</v>
+        <v>22.26335614035191</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.21054423186033</v>
+        <v>26.53672944408652</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.5471433937348</v>
+        <v>-10.49229340031934</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>31.55531836944199</v>
+        <v>14.96315401006268</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.79263175760096</v>
+        <v>17.98656628760785</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.43062519484824</v>
+        <v>22.26493372234177</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>31.55026061917493</v>
+        <v>-6.874204733787106</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.55700132266443</v>
+        <v>18.58554988065282</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.96533750073554</v>
+        <v>28.22937343635806</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>27.56727899428163</v>
+        <v>32.50726904068699</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>30.9387095569736</v>
+        <v>29.30367471327247</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.62562238823565</v>
+        <v>33.58178494408457</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>31.55821435206261</v>
+        <v>4.440439629728875</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.56090856278789</v>
+        <v>29.90185317758051</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>37.20961877879633</v>
+        <v>39.54858383364365</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>37.53947943730847</v>
+        <v>43.8262221846187</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.75653385046851</v>
+        <v>32.53382370271186</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.097566804785</v>
+        <v>36.81203417754659</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.55516106988524</v>
+        <v>7.671376779121378</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>31.55949183578526</v>
+        <v>33.13346395038866</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>33.99918730481932</v>
+        <v>42.78069667829391</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>35.42374128171441</v>
+        <v>47.05843526107094</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.94669066708877</v>
+        <v>24.59938622103369</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.96458901264014</v>
+        <v>28.87803414866483</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.54779641101861</v>
+        <v>-0.2594929247311448</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>31.55546021373903</v>
+        <v>25.20144045694633</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>30.99464335687029</v>
+        <v>34.84584608417845</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>32.67531528951533</v>
+        <v>39.12402216831777</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.5483940690145</v>
+        <v>-7.860615776040273</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.55600543766833</v>
+        <v>17.59302348011602</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.60801115003753</v>
+        <v>27.23904622510497</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.22326629557292</v>
+        <v>31.51135664684478</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.55177867505125</v>
+        <v>-5.522158905946977</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>31.55805330109652</v>
+        <v>19.93644400668814</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>31.54769731695944</v>
+        <v>3.4487146392994</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.55569128678944</v>
+        <v>28.90401278225704</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>24.62647151888612</v>
+        <v>38.55294232294125</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.26004378585118</v>
+        <v>42.82499543680888</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>31.55968921321883</v>
+        <v>5.790606752524017</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>31.56144850730037</v>
+        <v>31.25086871478436</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>31.54522057272185</v>
+        <v>6.677405754740679</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>31.55430259870204</v>
+        <v>32.13337756728367</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>24.80711747614772</v>
+        <v>41.78280920815644</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.09336973862363</v>
+        <v>46.05496248423799</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>31.55575423003079</v>
+        <v>9.019850629396391</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>31.55935030018711</v>
+        <v>34.48078626177164</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.54599219485815</v>
+        <v>-1.249679534496632</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>31.55470168670733</v>
+        <v>24.20513853356772</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.1922438199578</v>
+        <v>33.85174346883252</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.34887081826599</v>
+        <v>38.12433422067704</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.55419938109649</v>
+        <v>1.08950942261902</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.55868156490569</v>
+        <v>26.54929116939832</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.50205983160425</v>
+        <v>29.5742852709949</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.74011026217269</v>
+        <v>33.85187001764609</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.5489899561804</v>
+        <v>4.705064790816895</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.55651087565085</v>
+        <v>30.16915382995944</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>31.02340783148308</v>
+        <v>39.81516816598844</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.69342943396206</v>
+        <v>44.09228105744933</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.70902751436073</v>
+        <v>40.89161696002463</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.13189734090194</v>
+        <v>45.16894445490345</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.5622264421344</v>
+        <v>16.01993217207542</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>31.56258008541965</v>
+        <v>41.48568023316261</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>38.53566842259987</v>
+        <v>51.1346018242989</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>38.90103361033478</v>
+        <v>55.41145741442165</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>33.71971278537295</v>
+        <v>44.12203649318508</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>34.26666145149358</v>
+        <v>48.39946421010166</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>31.5525831009084</v>
+        <v>19.25113984248071</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>31.55730746295221</v>
+        <v>44.71756155937715</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.81983741918687</v>
+        <v>54.36698527003796</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>37.35172175976903</v>
+        <v>58.64394107011594</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.6006426206501</v>
+        <v>36.18771432010715</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>32.25811307238715</v>
+        <v>40.46557952560238</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.55068078149474</v>
+        <v>11.3203856917778</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.55643715548592</v>
+        <v>36.78565356962292</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.13539947862962</v>
+        <v>46.43225004903115</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>37.75587839934541</v>
+        <v>50.70964338622059</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.55535651336239</v>
+        <v>-19.80548910871061</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.55975948967006</v>
+        <v>5.645493255272076</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.61959172980814</v>
+        <v>15.29124667889426</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.91866173068338</v>
+        <v>19.56359836732191</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.54780358420156</v>
+        <v>-17.47487397532757</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>31.55577449810865</v>
+        <v>7.981071953946529</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.55241600823921</v>
+        <v>-8.496265537843779</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>31.55816972290583</v>
+        <v>16.95637567588915</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.92014795492168</v>
+        <v>26.60503588939662</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.259857662105</v>
+        <v>30.87713028598046</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>31.54494180134425</v>
+        <v>-6.162215199587532</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>31.55444433696983</v>
+        <v>19.29538974234402</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>31.55384129978835</v>
+        <v>-5.267666694607097</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.55874310722522</v>
+        <v>20.18564819008907</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.16568159787351</v>
+        <v>29.83481050032072</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.74653657749637</v>
+        <v>34.10700506811474</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>31.54601253684935</v>
+        <v>-2.933063543828094</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>31.5547286459025</v>
+        <v>22.52521506953542</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>31.55128781975354</v>
+        <v>-13.19475983562063</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>31.55739035009109</v>
+        <v>12.25740133389627</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.96609048517722</v>
+        <v>21.90373694791981</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.68888008821239</v>
+        <v>26.17636898014667</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.54740476617354</v>
+        <v>-10.86341254317233</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>31.55545208651541</v>
+        <v>14.59371221343645</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.09197830362401</v>
+        <v>17.61864304769279</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.69246994347406</v>
+        <v>21.89626921570028</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>31.54902623047899</v>
+        <v>-7.242319490409383</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>31.55632966183598</v>
+        <v>18.2191127617142</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.51472808624036</v>
+        <v>27.86485734511041</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.11276787551012</v>
+        <v>32.14201162834445</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>27.94554128377116</v>
+        <v>28.9358678113689</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.85953540508092</v>
+        <v>33.2132367436194</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.5646390883076</v>
+        <v>4.072441121030128</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>31.56450528604379</v>
+        <v>29.53553235803827</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>35.96390192941529</v>
+        <v>39.18418419080672</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.30804818383703</v>
+        <v>43.46108118879954</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.46130005038498</v>
+        <v>32.16619512128443</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.643593989504</v>
+        <v>36.44366428444027</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.55272559706181</v>
+        <v>7.303556577415865</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.55779741227935</v>
+        <v>32.76732147155099</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>33.25932448802309</v>
+        <v>42.41647542048861</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>34.39318383726381</v>
+        <v>46.69347263715258</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.76651722811583</v>
+        <v>24.23186519406352</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.68520523986034</v>
+        <v>28.50977183462112</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>31.54774097830683</v>
+        <v>-0.6272054625086376</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>31.55508362025067</v>
+        <v>24.83540562168128</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.98649730780977</v>
+        <v>34.48173234859451</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.01284180266224</v>
+        <v>38.75916709131798</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.54839379876198</v>
+        <v>-26.45588544142697</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.55600528427145</v>
+        <v>-1.00690556862855</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>23.60792668405697</v>
+        <v>8.638705300967562</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.22320995697569</v>
+        <v>12.91071789229341</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>31.5482208048125</v>
+        <v>-24.12241709270711</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.55594408115667</v>
+        <v>1.331526143834711</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.54840416591008</v>
+        <v>-15.14740982994737</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.55600442803022</v>
+        <v>10.30322881495704</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.6345063226508</v>
+        <v>19.95174633905333</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.3633929840163</v>
+        <v>24.22350164561238</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>31.54723768315902</v>
+        <v>-12.81050640590433</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.55546038771645</v>
+        <v>12.6450957657537</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>31.54765509014712</v>
+        <v>-11.91894926175246</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>31.55549990513851</v>
+        <v>13.53236302365383</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.44256347064928</v>
+        <v>23.18138261524155</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.31168436960671</v>
+        <v>27.4532380919203</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.54705369621535</v>
+        <v>-9.581493076353578</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.55531435884965</v>
+        <v>15.87478273623174</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>31.54792236070527</v>
+        <v>-19.84540834118922</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.55574646354764</v>
+        <v>5.604750280602733</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>23.89729474335306</v>
+        <v>15.25094330394643</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.70004001944112</v>
+        <v>19.52323623267023</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>31.54836808827101</v>
+        <v>-17.51120790651089</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.55599095645788</v>
+        <v>7.943914101361205</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.77713507617045</v>
+        <v>10.96895519048826</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.3944461632743</v>
+        <v>15.24624205066937</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.54936495852992</v>
+        <v>-13.89051602026995</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.55656769762539</v>
+        <v>11.56891326067</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.5911709319417</v>
+        <v>21.21451544738511</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.18861712555776</v>
+        <v>25.49133042395011</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.3476426377787</v>
+        <v>22.285431652076</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.01388312083166</v>
+        <v>26.56246128340422</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.56091133769624</v>
+        <v>-2.576503610659071</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.56244466471065</v>
+        <v>22.88458457744889</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.05037002829151</v>
+        <v>32.53309387765398</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>33.38250623519225</v>
+        <v>36.80965157581909</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.61362703521025</v>
+        <v>25.51562057627371</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.28525725455687</v>
+        <v>29.7927504374834</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>31.5609489705341</v>
+        <v>0.6544734369796323</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.56237492240468</v>
+        <v>26.11623525158859</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.26251425983482</v>
+        <v>35.76524663924636</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.6042155663135</v>
+        <v>40.04190455511286</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.60232671729656</v>
+        <v>17.58192499782217</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.22390152341684</v>
+        <v>21.85949232413532</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.55586177501693</v>
+        <v>-7.275654383074308</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.55963756424573</v>
+        <v>18.18495367363778</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>30.21552510592474</v>
+        <v>27.83113796680766</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>30.62931130488701</v>
+        <v>32.10823339629258</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.55527748838652</v>
+        <v>-11.64163677681381</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>31.55967276829445</v>
+        <v>13.81137687492435</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.1735101410738</v>
+        <v>23.45681616845036</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.54391355481516</v>
+        <v>27.73017905256041</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.54916714428196</v>
+        <v>-9.309268560843972</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.55651427218737</v>
+        <v>16.14870907805062</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.5655779332469</v>
+        <v>-0.3309877283006664</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.56502330581869</v>
+        <v>25.12368490111317</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.19677030306814</v>
+        <v>34.77203120126899</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.25270833154896</v>
+        <v>39.04513678924513</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.55940515416478</v>
+        <v>2.004815911700693</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.56183874364895</v>
+        <v>27.46445269137485</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.56412215978332</v>
+        <v>2.898208451123882</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.56409325890744</v>
+        <v>28.35355480578574</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>35.86600580371324</v>
+        <v>38.00240324488323</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.1212037564928</v>
+        <v>42.2756090120721</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.55807675289759</v>
+        <v>5.2345649158915</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.5610489563634</v>
+        <v>30.69487542127456</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.55318683086279</v>
+        <v>-5.029861214238618</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>31.55851267653639</v>
+        <v>20.42433133595251</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.05882689671902</v>
+        <v>30.07035286440771</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.87004755952267</v>
+        <v>34.34399611466961</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>31.55168739524422</v>
+        <v>-2.696760823651967</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.5577688837607</v>
+        <v>22.76239573599094</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.55765626994033</v>
+        <v>25.78596502234905</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.08222591034493</v>
+        <v>30.06460284095363</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.5494796545942</v>
+        <v>0.9223325094692463</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>31.55670745190952</v>
+        <v>26.38579687006291</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>27.55560017307799</v>
+        <v>36.03122710019204</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.05799647305081</v>
+        <v>40.30939296994882</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>32.57515568677819</v>
+        <v>37.10461582730272</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.75084940862502</v>
+        <v>41.38299640566481</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>31.57027040641123</v>
+        <v>12.23851892587493</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>31.56713228677296</v>
+        <v>37.70364239934975</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.74647617620332</v>
+        <v>47.35198009533087</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>39.73351851601129</v>
+        <v>51.62988867551633</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.82949683245945</v>
+        <v>40.33554058231903</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.28206352237383</v>
+        <v>44.61402139980555</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.5656809367483</v>
+        <v>15.47023187215337</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.5645711452044</v>
+        <v>40.93602905673652</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.17545580284659</v>
+        <v>50.58486891153802</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.41543672025399</v>
+        <v>54.86287771873208</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>27.53598429009514</v>
+        <v>32.40023361109263</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.25308074757686</v>
+        <v>36.6791519245312</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.54840496186619</v>
+        <v>7.538493081718119</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.55541607311501</v>
+        <v>33.00313636741168</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>33.66238279678999</v>
+        <v>42.6491487852785</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>34.63817369927796</v>
+        <v>46.92759513699161</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>31.55730178714232</v>
+        <v>-6.535821321234035</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>31.5606899421297</v>
+        <v>18.91695586936135</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.90597313747574</v>
+        <v>28.562514896263</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.22596763571188</v>
+        <v>32.83529185892428</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.550386217152</v>
+        <v>-4.208548137731892</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.55725021065881</v>
+        <v>21.24919255747637</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.5604627899598</v>
+        <v>4.773619150497101</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.56166822576274</v>
+        <v>30.22805522374017</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.08695472963325</v>
+        <v>39.87652105979009</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.46946182721122</v>
+        <v>44.14904072444153</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>31.55766578236088</v>
+        <v>7.104327600434093</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>31.56052960463629</v>
+        <v>32.56372734169997</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.54933261732491</v>
+        <v>8.002195595828315</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.5556291041251</v>
+        <v>33.45730533231529</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>34.07650117846902</v>
+        <v>43.10627326020949</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>34.89379221103726</v>
+        <v>47.3788931000031</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>31.54718195636746</v>
+        <v>10.333456869457</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.55464464309739</v>
+        <v>35.79353027435604</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>31.55002786050999</v>
+        <v>0.07489520370859637</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>31.5560010094871</v>
+        <v>25.52885118905624</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>34.81531879681413</v>
+        <v>35.17499238885262</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.54405461855541</v>
+        <v>39.44804970581595</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>31.54741632164783</v>
+        <v>2.402900533317965</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>31.55530683641172</v>
+        <v>27.8618200457463</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.91873475761583</v>
+        <v>30.8865691672429</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.27711989188585</v>
+        <v>35.16462056372575</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.54643343447716</v>
+        <v>6.021406454568822</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.55519273688277</v>
+        <v>31.48463332336769</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>30.38176792109287</v>
+        <v>41.13018354775886</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.33227047924241</v>
+        <v>45.40776306660723</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.49535165199629</v>
+        <v>42.20401094551607</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.53170001788046</v>
+        <v>46.48180510004977</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>31.55855858181181</v>
+        <v>17.33638394500861</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.56043891188177</v>
+        <v>42.80126983148637</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.15984356175101</v>
+        <v>52.44972732413953</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.64793141211519</v>
+        <v>56.7270495512787</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>31.84041996307698</v>
+        <v>45.43431585620931</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>32.91816068250914</v>
+        <v>49.71221024576391</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.54570046325298</v>
+        <v>20.56747700288736</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>31.55384164637307</v>
+        <v>46.03303653881994</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.71675303347255</v>
+        <v>55.68199614294201</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>35.73012281360536</v>
+        <v>59.95941859303241</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.87867086549715</v>
+        <v>37.49977852416339</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.78358308533924</v>
+        <v>41.77811040376287</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.54414322842528</v>
+        <v>12.63650769795038</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>31.55354945911554</v>
+        <v>38.10091338815982</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>33.95487329893557</v>
+        <v>47.74704573822794</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>35.08610875692551</v>
+        <v>52.02490572696183</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>31.55698077001944</v>
+        <v>-3.855889083189023</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.56046166688359</v>
+        <v>21.5999001577261</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.84496211750337</v>
+        <v>31.24612262886945</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.21285669587605</v>
+        <v>35.51946288190163</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.55047287840864</v>
+        <v>-1.52387797160338</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>31.55715974142201</v>
+        <v>23.93687532710829</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.57284851538826</v>
+        <v>7.455057123811006</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.56869670978783</v>
+        <v>32.91250540327189</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.63471567746644</v>
+        <v>42.5616349659208</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.59730759881341</v>
+        <v>46.83471790501687</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>31.5640089498213</v>
+        <v>9.790503773704931</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>31.56369750022799</v>
+        <v>35.25291627407807</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.54601544832825</v>
+        <v>10.68434534572964</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>31.55356150067943</v>
+        <v>36.14246736630821</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.1026566026505</v>
+        <v>45.79209908409382</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.02144112652498</v>
+        <v>50.06528219591883</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.55045759575041</v>
+        <v>13.0203448273054</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.55652178897664</v>
+        <v>38.48343106917002</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.54559157469145</v>
+        <v>2.756104605034924</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>31.5535079801058</v>
+        <v>28.21307277913491</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>33.82074287395277</v>
+        <v>37.85987750668369</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>34.83368661337555</v>
+        <v>42.13349811758258</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>31.54919750802145</v>
+        <v>5.088847881703035</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.55619625014887</v>
+        <v>30.55078013592857</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.26437562323395</v>
+        <v>33.5749143534058</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.87301767418107</v>
+        <v>37.85352960007822</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.54660427465252</v>
+        <v>8.706278137216376</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.55532376724426</v>
+        <v>34.17251812898235</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.72524889518127</v>
+        <v>43.81873164718115</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.55287225258225</v>
+        <v>48.09687492741364</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.9273814522681</v>
+        <v>44.89386257718149</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.13364666044616</v>
+        <v>49.17222056589037</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>31.5636221977197</v>
+        <v>20.02276181297191</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>31.56330193364988</v>
+        <v>45.49066097852869</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>38.42074065390802</v>
+        <v>55.13978204732609</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.63023252544394</v>
+        <v>59.41766802012728</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>32.52852589684163</v>
+        <v>48.12487941373126</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>33.17396394704608</v>
+        <v>52.40333763493322</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>31.54922627687008</v>
+        <v>23.25456685226675</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.55525623557956</v>
+        <v>48.72313974486258</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>35.69543809104711</v>
+        <v>58.37276298887082</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.52703084736802</v>
+        <v>62.65074918184018</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.78664269209167</v>
+        <v>40.18940111501502</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>30.55165692761879</v>
+        <v>44.46829684803686</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>31.54718881241518</v>
+        <v>15.32265690579243</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.55463752077148</v>
+        <v>40.79007585753789</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>35.18716792114726</v>
+        <v>50.43687158517014</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.07211239720124</v>
+        <v>54.71529533877083</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.56585623510206</v>
+        <v>-4.640281867298992</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.56527328974938</v>
+        <v>20.81318388564296</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.43027425518284</v>
+        <v>30.45941984191836</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.47130277936546</v>
+        <v>34.7327517030817</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.5514637759994</v>
+        <v>-2.306028250881692</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.55715037386303</v>
+        <v>23.1524014245623</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>31.57989271075307</v>
+        <v>6.670251941844871</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.57232172319226</v>
+        <v>32.12537665819809</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.35061116580235</v>
+        <v>41.77451959818598</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.02051923464978</v>
+        <v>46.0475941639362</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>31.5663087101974</v>
+        <v>9.007940967929702</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.56462682055884</v>
+        <v>34.46802976994309</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>31.54927940561101</v>
+        <v>9.899479231384934</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.5552929696071</v>
+        <v>35.35527766710334</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.77717378588918</v>
+        <v>45.00492273791349</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.48638968835525</v>
+        <v>49.27809747689423</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.56388921910683</v>
+        <v>12.2377210416579</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.56324352545218</v>
+        <v>37.6984835636415</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.54838620230828</v>
+        <v>1.971558327982624</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>31.55485242478391</v>
+        <v>27.42620297153258</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.6872882757599</v>
+        <v>37.07302115252958</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>35.53814789266676</v>
+        <v>41.34663336850008</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>31.5569761578524</v>
+        <v>4.306544042824161</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>31.55989030343651</v>
+        <v>29.76615263136421</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.59553726316278</v>
+        <v>32.79045417075235</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>31.05730549477577</v>
+        <v>37.06906094133024</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.54781648674933</v>
+        <v>7.923615054386918</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.55553218793392</v>
+        <v>33.38753126148004</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.06000145169593</v>
+        <v>43.03375833537461</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.60364899583801</v>
+        <v>47.31189311207766</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.7389951594706</v>
+        <v>44.10898968490494</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.57072238576005</v>
+        <v>48.38733921608502</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>31.56982874258022</v>
+        <v>19.23968614685691</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.56612729692699</v>
+        <v>44.70526145246004</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>40.32439929947698</v>
+        <v>54.35439596960407</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.25364624024716</v>
+        <v>58.63227345731104</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.57048927565245</v>
+        <v>47.33994549551244</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>35.6808651254305</v>
+        <v>51.61839525973573</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>31.56526620939735</v>
+        <v>22.47143013860864</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.56337861431097</v>
+        <v>47.93767914998068</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>39.60396498028841</v>
+        <v>57.58731581712675</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>39.79631436656342</v>
+        <v>61.86529352584887</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>32.01932873752059</v>
+        <v>39.40478729836468</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>32.37858041269894</v>
+        <v>43.68367455232419</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>31.5588374904349</v>
+        <v>14.53984013046022</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.5599479681</v>
+        <v>40.00493525501861</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>38.67197678303222</v>
+        <v>49.65174450640052</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>39.15025861724028</v>
+        <v>53.93015975348294</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>31.54869023273463</v>
+        <v>-8.537687156742432</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>31.55606860664222</v>
+        <v>16.91723806717278</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.54324442788027</v>
+        <v>26.56292635930231</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.1174077625324</v>
+        <v>30.83603420166321</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>31.54849580487191</v>
+        <v>-6.207611930754862</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.55597574167342</v>
+        <v>19.25227715670451</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.55061277168409</v>
+        <v>2.772944139941732</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>31.55629757981662</v>
+        <v>28.22952838061952</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>34.0501956258563</v>
+        <v>37.87812367718277</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.83248089506076</v>
+        <v>42.15097420387735</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>31.54998369331113</v>
+        <v>5.106454840575797</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.55631255228901</v>
+        <v>30.56800310772531</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.54668884110835</v>
+        <v>6.001951415034913</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.55402630534511</v>
+        <v>31.45920937090637</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.57257575763484</v>
+        <v>41.10830681153095</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.42981333417341</v>
+        <v>45.3812575169535</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>31.54740803967555</v>
+        <v>8.336014940745034</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.55500322344901</v>
+        <v>33.79823692363141</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.54595667301285</v>
+        <v>-1.926232968299015</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.55408483839817</v>
+        <v>23.52987114042515</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.11048205905699</v>
+        <v>33.1761416750436</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.17687931225717</v>
+        <v>37.44952988528723</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>31.54670412946561</v>
+        <v>0.4045743971795481</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.55489896759227</v>
+        <v>25.86564239161749</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.09123511251308</v>
+        <v>28.88978258496923</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.86816706041289</v>
+        <v>33.16816514067307</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.54660106947894</v>
+        <v>4.021590873078143</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.55530384364505</v>
+        <v>29.48696645183134</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.06777860768091</v>
+        <v>39.13264595175247</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>30.67934621234865</v>
+        <v>43.41055664289286</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.95620179793825</v>
+        <v>40.20841572560857</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.21468596591559</v>
+        <v>44.48654102170826</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.54588509538421</v>
+        <v>15.33775950590905</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.55349393706837</v>
+        <v>40.8047942366976</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>34.75126406858572</v>
+        <v>50.45338119999542</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.60487283587902</v>
+        <v>54.73103458199876</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>31.86524767820595</v>
+        <v>43.4391515720514</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>32.51438910597722</v>
+        <v>47.71737710646482</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.54588615510628</v>
+        <v>18.56928350758279</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.55396902434141</v>
+        <v>44.03699193971295</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>35.18793835693417</v>
+        <v>53.68608106711019</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>35.95207307521627</v>
+        <v>57.96383467534963</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.73214400022853</v>
+        <v>35.50372975864821</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.6904503310508</v>
+        <v>39.78239281099377</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.54403499323014</v>
+        <v>10.63742997037787</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>31.55349872707977</v>
+        <v>36.10398446055751</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.99079949656441</v>
+        <v>45.7502461559493</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.25724995799523</v>
+        <v>50.02843733063219</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.55383470321601</v>
+        <v>-15.39594978158231</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.55890872353404</v>
+        <v>10.05484026450836</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>27.15251749704198</v>
+        <v>19.69921762054981</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>27.55754082470613</v>
+        <v>23.97238899802335</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>31.5482007864059</v>
+        <v>-13.05570431284161</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>31.55590201705868</v>
+        <v>12.40004967526329</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>31.55574177496436</v>
+        <v>-4.08614614096086</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.55971232563958</v>
+        <v>21.36630277323309</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.73599359985487</v>
+        <v>31.0135869105344</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.25129967470621</v>
+        <v>35.28650101397488</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>31.55039795188793</v>
+        <v>-1.742465263436426</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.55652007205753</v>
+        <v>23.71494775585586</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>31.5514918810717</v>
+        <v>-0.8572672561810997</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>31.55743657862677</v>
+        <v>24.59585533395182</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.22510622417345</v>
+        <v>34.24364156114609</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.83170008358533</v>
+        <v>38.51665584262173</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.54585596911048</v>
+        <v>1.486966396417078</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>31.5544268587727</v>
+        <v>26.94505309197234</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.55504373235108</v>
+        <v>-8.784771763410273</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.55941077707165</v>
+        <v>16.66719709179279</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.5889893708069</v>
+        <v>26.31215661954423</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.057052400871</v>
+        <v>30.58560835467961</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.5459787817028</v>
+        <v>-6.443794178800882</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.55460303959543</v>
+        <v>19.01313864051554</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.79436485672012</v>
+        <v>22.03624418877826</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>27.41829891881375</v>
+        <v>26.31469034630527</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.5487300158948</v>
+        <v>-2.82683536683157</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>31.55631453372275</v>
+        <v>22.63440496938688</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.00750282040386</v>
+        <v>32.27877311536133</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.39956693297411</v>
+        <v>36.55674728943995</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>32.39077002288505</v>
+        <v>33.35404923580052</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>32.86855990186838</v>
+        <v>37.63223817519793</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.56357589905401</v>
+        <v>8.48850550279781</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>31.56323324313309</v>
+        <v>33.9514048422584</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>37.98850773707992</v>
+        <v>43.59868022862236</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>38.28128870278576</v>
+        <v>47.87639713488522</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.01345747601763</v>
+        <v>36.58465654868542</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>31.17538095742078</v>
+        <v>40.86294572575628</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.54588594312617</v>
+        <v>11.71990096671937</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.55393839671349</v>
+        <v>37.18347396834508</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.58053570921261</v>
+        <v>46.83125146468888</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>34.64770634529999</v>
+        <v>51.10906859665818</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.56966628652371</v>
+        <v>28.64991502225064</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.89761748707581</v>
+        <v>32.92864166587015</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>31.54289940132506</v>
+        <v>3.788727323307516</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.55285447272063</v>
+        <v>29.25114649539399</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>30.84223888245172</v>
+        <v>38.89609676607336</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>32.78744141967942</v>
+        <v>43.1743514132902</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>31.55152421342561</v>
+        <v>-8.475158074825114</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>31.55756970222165</v>
+        <v>16.97787545580741</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.09847781970692</v>
+        <v>26.62377734603718</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.59886354843674</v>
+        <v>30.89721128664224</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.54535034647942</v>
+        <v>-6.140829898714625</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.55466499892901</v>
+        <v>19.31716756942501</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.55241561659974</v>
+        <v>2.835330722708822</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>31.55793626594119</v>
+        <v>28.2900232112105</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>32.04660988334602</v>
+        <v>37.93883206938744</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>32.64500340418368</v>
+        <v>42.21200871968904</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.54623069662995</v>
+        <v>5.173094302207236</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.55467910955008</v>
+        <v>30.63275089115882</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>31.55264926318651</v>
+        <v>6.064563067328667</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>31.55796813869199</v>
+        <v>31.51992927483468</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>31.70276034623404</v>
+        <v>41.16924025806713</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>32.41143557569362</v>
+        <v>45.44251708399656</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.54691525839317</v>
+        <v>8.402879423846233</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>31.55490760618234</v>
+        <v>33.86320973200247</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>31.55529133312205</v>
+        <v>-1.863325955895103</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>31.55948085908603</v>
+        <v>23.59088646276325</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.46953143477429</v>
+        <v>33.23737056909602</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.00917123490933</v>
+        <v>37.51108486874091</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>31.54594306302983</v>
+        <v>0.4717343083187906</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>31.55458362511689</v>
+        <v>25.93091068647152</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>27.93265774974414</v>
+        <v>28.9548861626206</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.59324316355214</v>
+        <v>33.23359505846304</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>31.54637325776386</v>
+        <v>4.088993413883262</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>31.55501412847472</v>
+        <v>29.55247742517998</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.54128243574558</v>
+        <v>39.19837035997625</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>27.32192803165781</v>
+        <v>43.47660725134972</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.51904410432158</v>
+        <v>40.27337663707181</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>31.5661994252653</v>
+        <v>44.55182829851651</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.55262023282682</v>
+        <v>15.40501950270312</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.55724290769854</v>
+        <v>40.87016260677387</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>35.41581515032007</v>
+        <v>50.51896296865243</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>36.27820647250334</v>
+        <v>54.79694257603569</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>30.06484149547264</v>
+        <v>43.50433748912917</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>31.49425397021745</v>
+        <v>47.7828893859654</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>31.54643540120748</v>
+        <v>18.63676854138373</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.55402444531247</v>
+        <v>44.1025853503694</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.05684299188842</v>
+        <v>53.75188785705905</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.14398438913035</v>
+        <v>58.0299676877612</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.81566180800841</v>
+        <v>35.56921119171739</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.20232047131137</v>
+        <v>39.84820057509467</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.5433090599032</v>
+        <v>10.70521039827986</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.55300658671408</v>
+        <v>36.16987332379063</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>30.64985662686816</v>
+        <v>45.81634842753317</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.55915440646611</v>
+        <v>50.09486579338579</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.56661758314314</v>
+        <v>-2.914897795170301</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.56578367565789</v>
+        <v>22.53870415507402</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.88013614663848</v>
+        <v>32.18534513420627</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.9493274145579</v>
+        <v>36.45769085404072</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>31.55237598848551</v>
+        <v>-0.584097973789877</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.55820730932952</v>
+        <v>24.87446760428429</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>31.57230235472418</v>
+        <v>8.395062569389783</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>31.56861579644788</v>
+        <v>33.85032341452154</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>37.44846019205927</v>
+        <v>43.49987125483563</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>37.29272358687599</v>
+        <v>47.77195967617911</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>31.56603109657559</v>
+        <v>10.72929767758274</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.56473399041248</v>
+        <v>36.18952231365142</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>31.54790503553696</v>
+        <v>11.62396968824067</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>31.5546335974366</v>
+        <v>37.07990421537932</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.3634008422133</v>
+        <v>46.72995417547747</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>35.21079704236541</v>
+        <v>51.00214276177667</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>31.55981569257358</v>
+        <v>13.95875764724997</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.56150097107319</v>
+        <v>39.41965596567923</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>31.54706873477834</v>
+        <v>3.696357080067632</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>31.55430933226757</v>
+        <v>29.15113786062443</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>34.16983514744708</v>
+        <v>38.79836106783932</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.12714818825911</v>
+        <v>43.0709871202788</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.55368824705745</v>
+        <v>6.027889117666636</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>31.55857903788456</v>
+        <v>31.48763354840321</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.41884522305812</v>
+        <v>34.5129261322412</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.82810355231209</v>
+        <v>38.7905462567935</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.54811683718136</v>
+        <v>9.644796135616733</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>31.55610511788109</v>
+        <v>35.10884795634081</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.1709888507854</v>
+        <v>44.75548019447706</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>31.88541725491171</v>
+        <v>49.03262841823687</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>35.80842631033524</v>
+        <v>45.83088788782072</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.00948004287134</v>
+        <v>50.10825076978324</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>31.56985107892755</v>
+        <v>20.96029355396991</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>31.56662484150779</v>
+        <v>46.42600440494709</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>39.40969692366346</v>
+        <v>56.07554396344449</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>39.38995943176124</v>
+        <v>60.3524348949004</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>34.99196739947804</v>
+        <v>49.0615235458157</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>35.28001716717952</v>
+        <v>53.33898665251161</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>31.55754148524912</v>
+        <v>24.19171731677364</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>31.55975674160231</v>
+        <v>49.65810183573194</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>37.00302510150213</v>
+        <v>59.3081435337499</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>37.58651261780858</v>
+        <v>63.58513467795819</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>32.38153440175238</v>
+        <v>41.12667400017926</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>32.91747196187696</v>
+        <v>45.40457458597132</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>31.55062050226129</v>
+        <v>16.26043578225358</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>31.55624696597314</v>
+        <v>41.72566646031953</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>35.43144816659684</v>
+        <v>51.37288087924276</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>36.16137586971404</v>
+        <v>55.65030955132056</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>31.5485172965362</v>
+        <v>-7.811217339514993</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>31.55598609978917</v>
+        <v>17.64371507962642</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>27.66401895701394</v>
+        <v>27.28940328592785</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>28.23668028573132</v>
+        <v>31.56250999733448</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>31.54849424110364</v>
+        <v>-5.481075108750584</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>31.55610706405683</v>
+        <v>19.97882114714833</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>31.55012497094891</v>
+        <v>3.499413130233737</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>31.55636635331879</v>
+        <v>28.9560045591096</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>33.87580357391703</v>
+        <v>38.60459975415654</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>34.3361704669747</v>
+        <v>42.87744915199073</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>31.55049672591985</v>
+        <v>5.832990800703673</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>31.55626170930844</v>
+        <v>31.29454622946981</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>31.54667391937917</v>
+        <v>6.728448976864119</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>31.5542479000007</v>
+        <v>32.18571411866947</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>33.47853673407581</v>
+        <v>41.83481145533869</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.97067230834553</v>
+        <v>46.10776102995783</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>31.54725669639392</v>
+        <v>9.062579453704192</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>31.55475965693675</v>
+        <v>34.52480859571642</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>31.54601398896977</v>
+        <v>-1.199730183227413</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>31.55426967017626</v>
+        <v>24.25638111718024</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>32.11269604994328</v>
+        <v>33.90265156258613</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>32.82567015638856</v>
+        <v>38.17603863804777</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>31.54607163218222</v>
+        <v>1.131144152868504</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>31.55466629229838</v>
+        <v>26.5922193123173</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>28.65016338803467</v>
+        <v>29.6163264846731</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.24804508681856</v>
+        <v>33.89470788187577</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>31.54666974120655</v>
+        <v>4.747669621005233</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>31.55527441479872</v>
+        <v>30.21305231429904</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.69143129417466</v>
+        <v>39.85873166273427</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>30.37500049286435</v>
+        <v>44.13664119918337</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>32.65605853265041</v>
+        <v>40.93495874071778</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>33.19130102177564</v>
+        <v>45.21308288030491</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>31.5498632439904</v>
+        <v>16.06383737540603</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>31.55571098788874</v>
+        <v>41.53087921347708</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>35.18388924301302</v>
+        <v>51.17946601018718</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>35.85852397474412</v>
+        <v>55.45711823941053</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>32.21629465901633</v>
+        <v>44.16572313468259</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>32.99114969142497</v>
+        <v>48.44394751090431</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>31.54631171795605</v>
+        <v>19.29538991390303</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>31.5539184632824</v>
+        <v>44.76310545104457</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>34.6737237927018</v>
+        <v>54.41219440879013</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>35.63067536586394</v>
+        <v>58.68994686260294</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.56270718436067</v>
+        <v>36.23030658494156</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>30.54954053079988</v>
+        <v>40.5089684748707</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>31.54384943169541</v>
+        <v>11.36354161912493</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>31.55343805131963</v>
+        <v>36.83010322033522</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>32.18782572645306</v>
+        <v>46.47636476083323</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>33.66068383223864</v>
+        <v>50.75455477710784</v>
       </c>
     </row>
   </sheetData>
